--- a/12_HandleTable_CallBack/06 抹除全局句柄(保护进程).xlsx
+++ b/12_HandleTable_CallBack/06 抹除全局句柄(保护进程).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\12_HandleTable_CallBack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBF8E9-CB1B-49BB-A8C1-673F2833C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513561F-B8B9-4CC2-A711-B258830F101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、ProcessProtect(x86/x64 见.code)</t>
+    <t>4、ProcessProtect(win7x86/x64 见.code)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1290,7 @@
     <hyperlink ref="B8" location="Sheet3!A1" display="2、蓝屏分析" xr:uid="{E5D8C58A-9888-41AC-8D87-C6712356E400}"/>
     <hyperlink ref="B10" location="Sheet4!A1" display="3、蓝屏分析2(目标进程退出后蓝屏)" xr:uid="{C4430111-7FFB-4BDB-9D5B-DBB697E1B26A}"/>
     <hyperlink ref="C13" location="Sheet5!A1" display="1）从64位汇编指令中读取地址" xr:uid="{89D264FA-30C6-439B-A061-8836AA0C2B67}"/>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{37885E88-5E0C-4EA2-8AAE-1610D28690AE}"/>
+    <hyperlink ref="B12" r:id="rId1" display="4、ProcessProtect(x86/x64 见.code)" xr:uid="{37885E88-5E0C-4EA2-8AAE-1610D28690AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
